--- a/data/trans_bre/P5_6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>10,16%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 6,35</t>
+          <t>-2,84; 10,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 14,11</t>
+          <t>-1,86; 30,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 6,95</t>
+          <t>-2,9; 12,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 17,55</t>
+          <t>-2,04; 48,14</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>-0,34%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,74</t>
+          <t>-2,73; 3,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,85</t>
+          <t>-3,25; 3,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,83</t>
+          <t>-2,8; 3,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 1,97</t>
+          <t>-3,37; 3,34</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>-3,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,95%</t>
+          <t>-0,66%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 0,06</t>
+          <t>-7,1; -0,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,79</t>
+          <t>-4,43; 4,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 0,06</t>
+          <t>-7,21; -0,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,06</t>
+          <t>-4,59; 4,59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>-0,35%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,01</t>
+          <t>-2,88; 1,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,28</t>
+          <t>-3,63; 2,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 1,08</t>
+          <t>-3,0; 1,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,47</t>
+          <t>-3,81; 2,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,59%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 1,32</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,66; 3,35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 1,38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 3,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_6-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_6-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,16%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.660475633390259</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.530836290594899</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.04017423246285528</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.07754923829494145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 10,74</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 30,46</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,9; 12,58</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 48,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.837635407044057</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.611120589673577</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.02898306625569636</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.02931542951949191</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.74225745538949</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.70687419871223</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1258440576651858</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4050355967231359</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,73; 3,71</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,25; 3,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 3,96</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 3,34</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.6118977862083486</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2111903768059031</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.006379176498805096</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.002210884205029093</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,78</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,84%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,66%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.733113676795699</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.181881436983495</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.02796773613460044</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.03272460704995749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; -0,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 4,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,21; -0,21</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 4,59</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.712483978240461</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.188796579366407</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.03959276677386511</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.03371637165397456</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,73%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,35%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.777263767976446</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.039605132296496</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.03841198362847015</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.02146051223665118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 1,48</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 2,75</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 1,55</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,81; 2,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.101428089297662</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.660763295515452</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.07205974726708383</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.06891290248797301</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.2057458693715538</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.768930207583399</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>-0.002115998363681525</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.02938998645461448</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,56</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,59%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,01; 1,32</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; 3,35</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 1,38</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,77; 3,67</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.3977843259776348</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1381755889069192</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.004146615443905708</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.001477816733549398</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.672700384685552</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.569568414928725</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.02737221227622083</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.02703441748532167</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.893678535642135</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.156256163987996</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.01988902931157327</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.04587321374365688</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
